--- a/PLR_do/bubble_data/bubble_data2.xlsx
+++ b/PLR_do/bubble_data/bubble_data2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaosilin\Desktop\Population_land_realestate\PLR_do\bubble_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF36909C-0538-437C-9818-4127750CB8AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6D0DEA-10AA-438B-94EB-B1F95E0207FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D30"/>
+      <selection activeCell="E2" sqref="E2:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -542,16 +542,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>0.79100000000000004</v>
+        <v>0.997</v>
       </c>
       <c r="C2" s="2">
-        <v>0.252</v>
+        <v>0.1</v>
       </c>
       <c r="D2" s="2">
-        <v>0.44600000000000001</v>
+        <v>0.316</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E30" si="0">IF(AND(B2&gt;0.9,C2&gt;0.4),"1",IF(AND(B2&gt;0.9,C2&lt;0.4),"2",IF(AND(B2&lt;0.9,C2&lt;0.4),"3","4")))</f>
+        <f>IF(AND(B2&gt;0.8,C2&gt;0.5),"1",IF(AND(B2&gt;0.8,C2&gt;0.3),"2",IF(AND(B2&gt;0.8,C2&lt;0.3),"3","4")))</f>
         <v>3</v>
       </c>
     </row>
@@ -560,16 +560,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>0.70499999999999996</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="C3" s="2">
-        <v>0.251</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>0.42</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E30" si="0">IF(AND(B3&gt;0.8,C3&gt;0.5),"1",IF(AND(B3&gt;0.8,C3&gt;0.3),"2",IF(AND(B3&gt;0.8,C3&lt;0.3),"3","4")))</f>
         <v>3</v>
       </c>
     </row>
@@ -578,13 +578,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>0.74</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="C4" s="2">
-        <v>0.219</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.40200000000000002</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -596,17 +596,17 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>0.99199999999999999</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="C5" s="2">
-        <v>0.48199999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="D5" s="2">
-        <v>0.69199999999999995</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -614,13 +614,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>0.73099999999999998</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="C6" s="2">
-        <v>0.223</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>0.40400000000000003</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -632,13 +632,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>0.79900000000000004</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="C7" s="2">
-        <v>0.247</v>
+        <v>0.109</v>
       </c>
       <c r="D7" s="2">
-        <v>0.44400000000000001</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -650,13 +650,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>0.64900000000000002</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="C8" s="2">
-        <v>0.22500000000000001</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>0.38200000000000001</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -668,13 +668,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>0.46300000000000002</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="C9" s="2">
-        <v>0.20899999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>0.311</v>
+        <v>0.186</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -686,13 +686,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>0.755</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="C10" s="2">
-        <v>0.23599999999999999</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>0.42199999999999999</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -704,13 +704,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="C11" s="2">
-        <v>0.22</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>0.35399999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -722,13 +722,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>0.65200000000000002</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="C12" s="2">
-        <v>0.219</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D12" s="2">
-        <v>0.378</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -740,13 +740,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>0.67500000000000004</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="C13" s="2">
-        <v>0.216</v>
+        <v>0.06</v>
       </c>
       <c r="D13" s="2">
-        <v>0.38100000000000001</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -758,13 +758,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>0.45</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="C14" s="2">
-        <v>0.222</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>0.316</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -776,13 +776,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="2">
-        <v>0.46600000000000003</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="C15" s="2">
-        <v>0.22600000000000001</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D15" s="2">
-        <v>0.32500000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -794,13 +794,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>0.73899999999999999</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="C16" s="2">
-        <v>0.23</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>0.41199999999999998</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -812,13 +812,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>0.72399999999999998</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="C17" s="2">
-        <v>0.253</v>
+        <v>0.1</v>
       </c>
       <c r="D17" s="2">
-        <v>0.42799999999999999</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="E17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -830,13 +830,13 @@
         <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>0.70299999999999996</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="C18" s="2">
-        <v>0.224</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>0.39700000000000002</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -848,13 +848,13 @@
         <v>22</v>
       </c>
       <c r="B19" s="2">
-        <v>0.66900000000000004</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="C19" s="2">
-        <v>0.214</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D19" s="2">
-        <v>0.378</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="E19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -866,13 +866,13 @@
         <v>23</v>
       </c>
       <c r="B20" s="2">
-        <v>0.79600000000000004</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="C20" s="2">
-        <v>0.221</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D20" s="2">
-        <v>0.42</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="E20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -884,13 +884,13 @@
         <v>24</v>
       </c>
       <c r="B21" s="2">
-        <v>0.746</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="C21" s="2">
-        <v>0.245</v>
+        <v>0.08</v>
       </c>
       <c r="D21" s="2">
-        <v>0.42699999999999999</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -902,13 +902,13 @@
         <v>25</v>
       </c>
       <c r="B22" s="2">
-        <v>0.52500000000000002</v>
+        <v>0.94</v>
       </c>
       <c r="C22" s="2">
-        <v>0.22700000000000001</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D22" s="2">
-        <v>0.34499999999999997</v>
+        <v>0.221</v>
       </c>
       <c r="E22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -920,13 +920,13 @@
         <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>0.81200000000000006</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="C23" s="2">
-        <v>0.28299999999999997</v>
+        <v>0.104</v>
       </c>
       <c r="D23" s="2">
-        <v>0.48</v>
+        <v>0.318</v>
       </c>
       <c r="E23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -938,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="B24" s="2">
-        <v>0.71499999999999997</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="C24" s="2">
-        <v>0.25</v>
+        <v>0.111</v>
       </c>
       <c r="D24" s="2">
-        <v>0.42299999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -956,13 +956,13 @@
         <v>28</v>
       </c>
       <c r="B25" s="2">
-        <v>0.74199999999999999</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="C25" s="2">
-        <v>0.254</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D25" s="2">
-        <v>0.434</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -974,13 +974,13 @@
         <v>29</v>
       </c>
       <c r="B26" s="2">
-        <v>0.73699999999999999</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="C26" s="2">
-        <v>0.251</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D26" s="2">
-        <v>0.43</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="E26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -992,13 +992,13 @@
         <v>30</v>
       </c>
       <c r="B27" s="2">
-        <v>0.79100000000000004</v>
+        <v>0.995</v>
       </c>
       <c r="C27" s="2">
-        <v>0.27100000000000002</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D27" s="2">
-        <v>0.46300000000000002</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="E27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1010,13 +1010,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>0.53800000000000003</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="C28" s="2">
-        <v>0.22700000000000001</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D28" s="2">
-        <v>0.35</v>
+        <v>0.248</v>
       </c>
       <c r="E28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1028,13 +1028,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>0.44800000000000001</v>
+        <v>0.871</v>
       </c>
       <c r="C29" s="2">
-        <v>0.21299999999999999</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D29" s="2">
-        <v>0.309</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="E29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1046,13 +1046,13 @@
         <v>33</v>
       </c>
       <c r="B30" s="2">
-        <v>0.51600000000000001</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="C30" s="2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D30" s="2">
         <v>0.22</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.33600000000000002</v>
       </c>
       <c r="E30" s="2" t="str">
         <f t="shared" si="0"/>
